--- a/User Study/task order.xlsx
+++ b/User Study/task order.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\master-thesis-nina\User Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETH\Master\Master Thesis\master-thesis-nina.git\master-thesis-nina.git\User Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>Application 1</t>
   </si>
@@ -41,27 +41,12 @@
     <t>2 first</t>
   </si>
   <si>
-    <t>IBIB</t>
-  </si>
-  <si>
-    <t>IBBI</t>
-  </si>
-  <si>
-    <t>BIIB</t>
-  </si>
-  <si>
-    <t>BIBI</t>
-  </si>
-  <si>
     <t>Which app with/without tools?</t>
   </si>
   <si>
     <t>Which application first?</t>
   </si>
   <si>
-    <t>Which order of tasks?</t>
-  </si>
-  <si>
     <t>XDYouTube</t>
   </si>
   <si>
@@ -116,42 +101,6 @@
     <t>Participant 16</t>
   </si>
   <si>
-    <t>XDYT, implement, with tools</t>
-  </si>
-  <si>
-    <t>XDC, implement, w/o tools</t>
-  </si>
-  <si>
-    <t>XDC, bug fix, w/o tools</t>
-  </si>
-  <si>
-    <t>XDYT, implement, w/o tools</t>
-  </si>
-  <si>
-    <t>XDYT, bug fix with tools</t>
-  </si>
-  <si>
-    <t>XDYT, bug fix w/o tools</t>
-  </si>
-  <si>
-    <t>XDC, implement with tools</t>
-  </si>
-  <si>
-    <t>XDC, bug fix with tools</t>
-  </si>
-  <si>
-    <t>XDYT, implement w/o tools</t>
-  </si>
-  <si>
-    <t>XDC, implement w/o tools</t>
-  </si>
-  <si>
-    <t>XDC, bug fix w/o tools</t>
-  </si>
-  <si>
-    <t>XDYT, implement with tools</t>
-  </si>
-  <si>
     <t>1 with</t>
   </si>
   <si>
@@ -168,6 +117,42 @@
   </si>
   <si>
     <t>Task 4</t>
+  </si>
+  <si>
+    <t>XDYT, bug fixing, with tools</t>
+  </si>
+  <si>
+    <t>XDYT, implementing, with tools</t>
+  </si>
+  <si>
+    <t>XDC, bug fixing, w/o tools</t>
+  </si>
+  <si>
+    <t>XDC, implementing w/o tools</t>
+  </si>
+  <si>
+    <t>XDYT, bug fixing, w/o tools</t>
+  </si>
+  <si>
+    <t>XDYT, implementing, w/o tools</t>
+  </si>
+  <si>
+    <t>XDC, bug fixing, with tools</t>
+  </si>
+  <si>
+    <t>XDC, implementing with tools</t>
+  </si>
+  <si>
+    <t>XDC, implementing, with tools</t>
+  </si>
+  <si>
+    <t>XDC, implementing, w/o tools</t>
+  </si>
+  <si>
+    <t>XDYT, implementing w/o tools</t>
+  </si>
+  <si>
+    <t>XDYT, implementing with tools</t>
   </si>
 </sst>
 </file>
@@ -207,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,43 +470,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -529,32 +511,20 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -564,26 +534,23 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -593,26 +560,23 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -622,26 +586,23 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -651,26 +612,23 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>2</v>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -681,25 +639,22 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -710,25 +665,22 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -739,25 +691,22 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -768,25 +717,22 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -796,26 +742,23 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -825,26 +768,23 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -854,26 +794,23 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -883,26 +820,23 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -912,26 +846,23 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
         <v>34</v>
       </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -941,26 +872,23 @@
       <c r="D16" t="s">
         <v>2</v>
       </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" t="s">
         <v>38</v>
       </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -970,26 +898,23 @@
       <c r="E17" t="s">
         <v>2</v>
       </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" t="s">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -999,39 +924,36 @@
       <c r="E18" t="s">
         <v>2</v>
       </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
